--- a/content/dadesref/entitats/Departaments.xlsx
+++ b/content/dadesref/entitats/Departaments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\Generalitat de Catalunya\Franco Castanys, Llorenç - 2019 - Dades de referència\__C6\01.CATaleg\10.Modelatge_OIAD\09.Departaments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/09.Departaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D6EBB9D-CAB7-4F89-B465-F35903A50A7B}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D2382AC-769C-4D90-BE13-99992D406CE6}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Codi</t>
   </si>
@@ -42,12 +44,6 @@
     <t>Departament de la Presidència</t>
   </si>
   <si>
-    <t>Departament de la Vicepresidència i d'Economia i Hisenda</t>
-  </si>
-  <si>
-    <t>Departament d'Acció Exterior, Relacions Institucionals i Transparència</t>
-  </si>
-  <si>
     <t>Departament d'Interior</t>
   </si>
   <si>
@@ -57,27 +53,12 @@
     <t>Departament de Salut</t>
   </si>
   <si>
-    <t>Departament de Territori i Sostenibilitat</t>
-  </si>
-  <si>
     <t>Departament de Cultura</t>
   </si>
   <si>
     <t>Departament de Justícia</t>
   </si>
   <si>
-    <t>Departament de Treball, Afers Socials i Famílies</t>
-  </si>
-  <si>
-    <t>Departament d'Empresa i Coneixement</t>
-  </si>
-  <si>
-    <t>Departament de Polítiques Digitals i Administració Pública</t>
-  </si>
-  <si>
-    <t>Departament d'Agricultura, Ramaderia, Pesca i Alimentació</t>
-  </si>
-  <si>
     <t>Departaments</t>
   </si>
   <si>
@@ -90,9 +71,6 @@
     <t>PRE</t>
   </si>
   <si>
-    <t>EXI</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -105,37 +83,67 @@
     <t>JUS</t>
   </si>
   <si>
-    <t>ARP</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
     <t>AD</t>
   </si>
   <si>
-    <t>VEH</t>
-  </si>
-  <si>
-    <t>EDU</t>
-  </si>
-  <si>
-    <t>TES</t>
-  </si>
-  <si>
-    <t>TSF</t>
-  </si>
-  <si>
-    <t>EMC</t>
-  </si>
-  <si>
-    <t>PDA</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
     <t xml:space="preserve">Nom entitat: </t>
+  </si>
+  <si>
+    <t>Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
+  </si>
+  <si>
+    <t>VPD</t>
+  </si>
+  <si>
+    <t>Departament d'Empresa i Treball</t>
+  </si>
+  <si>
+    <t>EMT</t>
+  </si>
+  <si>
+    <t>Departament d'Economia i Hisenda</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>Departament d'Igualtat i Feminismes</t>
+  </si>
+  <si>
+    <t>IGU</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Exterior i Transparència</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>EDC</t>
+  </si>
+  <si>
+    <t>Departament de Recerca i Universitats</t>
+  </si>
+  <si>
+    <t>REU</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Climàtica, Alimentació i Agenda Rural</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Departament de Drets Socials</t>
+  </si>
+  <si>
+    <t>DSO</t>
   </si>
 </sst>
 </file>
@@ -398,9 +406,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E18">
-    <sortCondition ref="E4:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E19">
+    <sortCondition ref="E4:E19"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="2"/>
@@ -674,28 +682,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.453125" style="2"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -704,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -712,161 +720,172 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
+        <v>3392</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>19775</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>19772</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>21647</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>19769</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1599</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>21648</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>4163</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2803</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13760</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>19769</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>13760</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>1599</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>19774</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2221</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>2803</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>13757</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>3392</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>2221</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>99998</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>13757</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>99999</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>19774</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>19775</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>19773</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>4163</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>99998</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>99999</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +893,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C19:C950" numberStoredAsText="1"/>
+    <ignoredError sqref="C20:C951" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -883,15 +902,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1023,7 +1033,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1032,23 +1042,16 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1066,10 +1069,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/dadesref/entitats/Departaments.xlsx
+++ b/content/dadesref/entitats/Departaments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/09.Departaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D2382AC-769C-4D90-BE13-99992D406CE6}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6AF9B877-91D0-4BA4-BC94-1D7DCAA5F3FD}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9408" yWindow="3612" windowWidth="14076" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Departaments" sheetId="1" r:id="rId1"/>
@@ -116,15 +116,6 @@
     <t>Departament d'Igualtat i Feminismes</t>
   </si>
   <si>
-    <t>IGU</t>
-  </si>
-  <si>
-    <t>Departament d'Acció Exterior i Transparència</t>
-  </si>
-  <si>
-    <t>EXT</t>
-  </si>
-  <si>
     <t>EDC</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>DSO</t>
+  </si>
+  <si>
+    <t>IFE</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Exterior i Govern Obert</t>
+  </si>
+  <si>
+    <t>XGO</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>19769</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,10 +794,10 @@
         <v>21648</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>4163</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,10 +838,10 @@
         <v>19774</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,6 +902,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1033,15 +1042,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1052,6 +1052,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1069,14 +1077,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>

--- a/content/dadesref/entitats/Departaments.xlsx
+++ b/content/dadesref/entitats/Departaments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/09.Departaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6AF9B877-91D0-4BA4-BC94-1D7DCAA5F3FD}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A06D06-FDA0-40BE-975C-CF8BA9E7724D}"/>
   <bookViews>
-    <workbookView xWindow="9408" yWindow="3612" windowWidth="14076" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="468" windowWidth="19140" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Departaments" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Departament de Cultura</t>
   </si>
   <si>
-    <t>Departament de Justícia</t>
-  </si>
-  <si>
     <t>Departaments</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t xml:space="preserve">Nom entitat: </t>
   </si>
   <si>
-    <t>Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
-  </si>
-  <si>
-    <t>VPD</t>
-  </si>
-  <si>
     <t>Departament d'Empresa i Treball</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Departament d'Igualtat i Feminismes</t>
   </si>
   <si>
-    <t>EDC</t>
-  </si>
-  <si>
     <t>Departament de Recerca i Universitats</t>
   </si>
   <si>
@@ -140,10 +128,22 @@
     <t>IFE</t>
   </si>
   <si>
-    <t>Departament d'Acció Exterior i Govern Obert</t>
-  </si>
-  <si>
-    <t>XGO</t>
+    <t>Departament de Territori</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Exterior i Unió Europea</t>
+  </si>
+  <si>
+    <t>Departament de Justícia, Drets i Memòria</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>EDU</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,7 +269,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,15 +694,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
+      <c r="A3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -716,44 +715,44 @@
       <c r="A4" s="5">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3392</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>19775</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>22</v>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>19772</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>24</v>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,10 +760,10 @@
         <v>21647</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,10 +771,10 @@
         <v>19769</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,30 +784,30 @@
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>27</v>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>21648</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>28</v>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>4163</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>30</v>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,21 +837,21 @@
         <v>19774</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2221</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,32 +859,32 @@
         <v>13757</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>99998</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>99998</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>99999</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>99999</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -902,15 +901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1042,6 +1032,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1052,14 +1051,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1077,6 +1068,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
